--- a/data/4/20230615-a1r-nc-session4-d_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-d_transcript.xlsx
@@ -1,447 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71058B-BB1C-F142-B648-6F431D453971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:13"</t>
-  </si>
-  <si>
-    <t>Hey Dion. Hi. Nice to see you guys.</t>
-  </si>
-  <si>
-    <t>"2:18"</t>
-  </si>
-  <si>
-    <t>Hello again, Gabe.</t>
-  </si>
-  <si>
-    <t>"12:24"</t>
-  </si>
-  <si>
-    <t>I'm all for closing, those loopholes.</t>
-  </si>
-  <si>
-    <t>"12:37"</t>
-  </si>
-  <si>
-    <t>I would also, I would agree. And with Gabriel on that. I don't know how they would do it though because it seems like the polls closing loopholes just creates new ones. But regarding the, raising the limits, I think they should raise the limit as they do seem like they're because of inflation, they say they've seen low for several</t>
-  </si>
-  <si>
-    <t>"13:03"</t>
-  </si>
-  <si>
-    <t>Something seems backwards in all of this. When I look at that one, that talks about the Supreme Court, ruled that corporations under the guise of free speech can make as much content political contribution as they want, but then individuals can be limited to a certain amount. It seems to me backwards. Like the Constitution should be and would be written to protect the rights of individuals people. Not the rights of Corporations, which didn't even exist when the Constitution was created.</t>
-  </si>
-  <si>
-    <t>"13:32"</t>
-  </si>
-  <si>
-    <t>I agree. I agree with Nathan on that. I feel like if the Supreme Court ruling is going to be walked back about equating it with free speech, I think it shouldn't affect individuals. I just think that corporations shouldn't have more rights and individuals that's just wacky in my opinion.</t>
-  </si>
-  <si>
-    <t>"13:53"</t>
-  </si>
-  <si>
-    <t>I would agree with that.</t>
-  </si>
-  <si>
-    <t>"13:59"</t>
-  </si>
-  <si>
-    <t>I have a feeling that people hide behind the corporations, like you have individuals that are doing this, you know, most of the donating and I contribute in a corporation. I mean, so you guys are all right. If you're gonna limit individuals and for heaven, sakes, limit corporations,</t>
-  </si>
-  <si>
-    <t>"14:21"</t>
-  </si>
-  <si>
-    <t>I know that to be true because I just know that some of the higher-ups, for example, at the company that I work at have different views than I do. But they, you know, bow down into the desires of the board of directors and they'll donate to whatever political candidate that they want, but it doesn't reflect me. So and I'm in that Corporation, you know, as an employee. So it just doesn't make any sense at all.</t>
-  </si>
-  <si>
-    <t>"14:48"</t>
-  </si>
-  <si>
-    <t>I'd actually like to see corporations banned from putting money into Political campaigns and they're being given a license to operate to serve the public. Good for you know, which is to make the economy work to make stuff, they shouldn't, it's totally out of place for them to doing that, both for their employees and also, for their customers. May not believe in the things they're donating.</t>
-  </si>
-  <si>
-    <t>"15:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that. Limiting the corporation's. I'm kind of thinking that maybe instead of trying to trying to keep them from being influenced, maybe somebody should</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Should keep them in check and keep them doing the public service, and not the private service, not serving the corporation serving the public, and that's kind of, to me, I think we're kind of cutting out the middleman saying, you know, whether they can corporations can donate this much that much, you know, more or less and just keep politicians held to the Public's interest and not private sin.</t>
-  </si>
-  <si>
-    <t>"15:52"</t>
-  </si>
-  <si>
-    <t>This is they're going to cut me off. But did you guys hear me when I was speaking? Before I just realized, I didn't have my ears in and I thought well I wonder if I couldn't hear anything.</t>
-  </si>
-  <si>
-    <t>"16:04"</t>
-  </si>
-  <si>
-    <t>I can.</t>
-  </si>
-  <si>
-    <t>"18:29"</t>
-  </si>
-  <si>
-    <t>I don't think they should use the.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Public funds to finance the elections. I'm not in agreement with them.</t>
-  </si>
-  <si>
-    <t>"18:42"</t>
-  </si>
-  <si>
-    <t>I agree. There's already enough money in politics and our government doesn't have extra money to be throwing around. It would just get borrowed in make situation worse.</t>
-  </si>
-  <si>
-    <t>"18:53"</t>
-  </si>
-  <si>
-    <t>Well, unless they have changed things and I confess I haven't done my own tax returns for about 10 years now.</t>
-  </si>
-  <si>
-    <t>We've always put public money into but into campaigns but it's always been this dinky little Mount like I think it's a dollar you check a box on your tax return. I would have a problem with raising that to $25 and people just checked it if they want to talk to him.</t>
-  </si>
-  <si>
-    <t>"19:37"</t>
-  </si>
-  <si>
-    <t>And disclose disclose disclose disclose all money. I mean, there's a reason that they say, follow the money, we should know who's giving the money for, in particular, some outrageous commercials, but any money behind behind candidates even lobbyist money? I mean, I think you could probably find everything if you dig deep enough but maybe it should be easier to find.</t>
-  </si>
-  <si>
-    <t>"20:06"</t>
-  </si>
-  <si>
-    <t>I agree with D. I think that people who contribute to campaigns should put their money where their mouth is,</t>
-  </si>
-  <si>
-    <t>"21:32"</t>
-  </si>
-  <si>
-    <t>We do have in Michigan, we do happen. Independent nonpartisan Commission.</t>
-  </si>
-  <si>
-    <t>That draws districts. We voted on it. I was trying to look it up while she was doing the explaining at the very beginning. I think it was 2016 because it was before we had a Democratic governor. And we, we had a republican governor and a republican legislature. And I remember that because that was the other thing I was trying to look up, they immediately try to do something right afterwards, that would take away the effect that the amendment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> But I think it was thrown out by the state supreme court and I was trying to find it for you guys. What it was they tried to do but I couldn't find</t>
-  </si>
-  <si>
-    <t>"22:24"</t>
-  </si>
-  <si>
-    <t>I'm just kind of hesitant of the idea of redistricting and redrawing the maps because it's usually done with the purpose. So ultimately what goal you're trying to reach? What are you trying to manipulate? So even though there's an independent company or person doing it, I still think it's worth some kind of mal-intent. I would agree with that.</t>
-  </si>
-  <si>
-    <t>"22:43"</t>
-  </si>
-  <si>
-    <t>So it's a redistricting does need to be done when population changes because people move from one part of the state to another to balance things out. But I don't understand why we need commissions and people to be so involved in the process. I mean, we could just have a standard algorithm that you could apply to any districting that would go through and have a, you know, an unbiased way of doing it. Like just divide it here, State and thirds and then sneak back and forth, slicing it off at each. Each population threshold, I don't see why it needs to be so complicated. I mean, there's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> billions of ways you could do it, but if you just chose one and standardized it, I don't see why we need any of this sort of commissions and debate,</t>
-  </si>
-  <si>
-    <t>"23:26"</t>
-  </si>
-  <si>
-    <t>I think with the rise of technology and AI lately, it'd be really easy to automate it somehow like that. I agree.</t>
-  </si>
-  <si>
-    <t>"23:37"</t>
-  </si>
-  <si>
-    <t>That does that does make sense. I was trying to remember,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The, how the Supreme Court decision last week, affected the Georgia, redistricting how it was going to change things so quickly, but I don't know if they want from like a standardized or a normal districting. Like Nathan says to something. Totally bizarre, which is by the way, what they did have in our state before, we had an independent commission where they actually, we're cutting out districts that had black</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> voters, you know, are making the sections real small on my run out of time, making the sections of black voters. So small, they had no voice</t>
-  </si>
-  <si>
-    <t>"24:25"</t>
-  </si>
-  <si>
-    <t>Going back to the topic of a. I I just think, I don't know. Maybe have you guys seen The Matrix? I just I don't know if a is the right answer to this, but I agree that we could come up with a standard and we could just go buy the standard rather than, you know, having political parties whoever's in charge re District Court.</t>
-  </si>
-  <si>
-    <t>"24:48"</t>
-  </si>
-  <si>
-    <t>Yeah, it's a clarify, having an algorithm is not AI. Those are two totally different things. You could have an AI generated algorithm but I would not recommend that it just make it something simple that people could would notice.</t>
-  </si>
-  <si>
-    <t>"25:01"</t>
-  </si>
-  <si>
-    <t>Yeah, I totally agree. I don't trust a myself. I just meant that with the rise of Technology, it should be much easier to come up with a solution.</t>
-  </si>
-  <si>
-    <t>"26:29"</t>
-  </si>
-  <si>
-    <t>I think it's ridiculous. The idea of creating and making it a civic duty to me that just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it seems like there should be something that's our right to involve our self in to be forced to do it. Just, I don't know, that just sounds absolutely.</t>
-  </si>
-  <si>
-    <t>"26:50"</t>
-  </si>
-  <si>
-    <t>I see where you're coming from Gabriel, but like we make other things like jury duty, like a civic duty that we have to do, and I just question, you know, the stakeholders who say that, you know, it's not a good idea to make it a civic duty and only certain people should vote like, I just questioned their motivations for saying that. Like, you know, I just think they have a vested interest in every like less people voting if you know what I mean.</t>
-  </si>
-  <si>
-    <t>"27:20"</t>
-  </si>
-  <si>
-    <t>The reason I say that is, you know, a lot of the times I got my plate full, I have I have a lot of personal responsibilities that I have to take care of. It isn't always that easy for me to run out and vote and I don't always have an interest necessarily, you know some of the last elections. There's nobody that I wanted to vote for not a single person out there maybe in the third parties but not certainly in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> to Nash or the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Together, Republican and Democrat.</t>
-  </si>
-  <si>
-    <t>"27:56"</t>
-  </si>
-  <si>
-    <t>One of the dangers of people voting to avoid fines is that they won't do any research on the candidates and will either vote randomly and very much uninformed.</t>
-  </si>
-  <si>
-    <t>"28:07"</t>
-  </si>
-  <si>
-    <t>Okay, I totally agree with Gabriel that. Finding someone for not voting. Just takes it away as a right. I mean if you make it compulsory it's not a right, it's Duty and it is different than jury duty. And I don't know why, but it sure feels like it. And I am so appalled, Gabriel that you do not vote in elections. I have Middle Ages. Children your age who still send me there?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Little stickers when they vote because they know that I'm going to scream at them if they don't go to the polls.</t>
-  </si>
-  <si>
-    <t>"28:44"</t>
-  </si>
-  <si>
-    <t>Yeah, I have some personal reasons to I do, I think I voted a couple of times. I do have some personal reasons to, but I wanted to go back. I don't really think that it's a fair comparison to the idea of jury duty. The reason that we have jury duty as the way is is because we have to have a group of individuals that can give a fair trial there. That's, that's nothing like this vote. And that's I don't think that you can really compare the two. I think</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it's apples in there.</t>
-  </si>
-  <si>
-    <t>"29:15"</t>
-  </si>
-  <si>
-    <t>I agree with that. Like I don't think you should be required to do it and I think you can go back to the work jury duty and it's a duty. It's a different definition. As you have the right to vote, you know, so it's completely different as far as the terminology but I don't, I don't think we should be forced to do it.</t>
-  </si>
-  <si>
-    <t>"29:35"</t>
-  </si>
-  <si>
-    <t>And I'm amused by the last one that has 16 year olds being allowed to vote. But only in school board's. If I think back three decades ago to when I was that age, I could care less and really had no idea what was going on in the school board's but I very much did care about voting for president senators and stuff like that. So if they're going to open it up which is fine just open it up across the board for voting and</t>
-  </si>
-  <si>
-    <t>"29:59"</t>
-  </si>
-  <si>
-    <t>I think that I had no idea with the 16 year olds voting in School Board elections. It's just kind of like to change the narrative on voting and just kind of change people's perceptions of. I mean, like I know Nathan you said you just couldn't care less about it. But you know maybe proposals like these could help kids in school care, more about voting. And then also help adults care more than with making Election Day a national holiday, providing more people, the opportunity to vote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vote, we can just kind of change, everyone's perception of voting and make it more. Like it's our responsibility to take care of our country and be stewards to our country.</t>
-  </si>
-  <si>
-    <t>"30:39"</t>
-  </si>
-  <si>
-    <t>I mean corporations are supposed to give you four hours on voting day anyway to help accommodate you to get off. Time off of work to go vote. So there's already systems in place, we don't need to make it a national holiday and as far as sixteen-year-olds, I think where they're going to get most of that information is from the teachers in the school and they're going to persuade the sixteen-year-old to vote in the direction that satisfies them. So it's not going to be really much critical thinking, it's just going to be brainwashed.</t>
-  </si>
-  <si>
-    <t>"31:14"</t>
-  </si>
-  <si>
-    <t>Yeah, the we're talking about the kids, it brings me back to, I don't know if it was the last group meeting two days ago or last week, but we were also talking about oh, man. Did I just forget? We were also, I'll come back if I can remember.</t>
-  </si>
-  <si>
-    <t>"31:34"</t>
-  </si>
-  <si>
-    <t>I will say I live in a university town, I spend a lot of time with 18 and 19 year olds. These kids are way smarter than a lot of us were at that age. They have information right at their fingertips and most of them will look it up. I mean, I know what you see online looks awful, but</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In the real world, I think they are a lot smarter than we give them credit for.</t>
-  </si>
-  <si>
-    <t>"32:06"</t>
-  </si>
-  <si>
-    <t>Not 16 year olds.</t>
-  </si>
-  <si>
-    <t>"32:09"</t>
-  </si>
-  <si>
-    <t>On the Federal Election Day holiday that might actually backfire because I could see that encouraging people who don't get a lot of time off, to use it as a great time for a holiday and then not be around for voting because of that.</t>
-  </si>
-  <si>
-    <t>"37:09"</t>
-  </si>
-  <si>
-    <t>Should we take AI off of that one to avoid scaring people?</t>
-  </si>
-  <si>
-    <t>"37:23"</t>
-  </si>
-  <si>
-    <t>Or could we add a caveat about how to avoid a matrix situation if using it?</t>
-  </si>
-  <si>
-    <t>"37:44"</t>
-  </si>
-  <si>
-    <t>I'm sorry, it was not letting me edit that for some reason I was able to edit the other time oh shoot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nope.</t>
-  </si>
-  <si>
-    <t>"38:02"</t>
-  </si>
-  <si>
-    <t>That's okay. We can just let the panel open that can of worms.</t>
-  </si>
-  <si>
-    <t>"38:22"</t>
-  </si>
-  <si>
-    <t>I think this is it. So it was nice meeting you all, I think after we go up this, that's it.</t>
-  </si>
-  <si>
-    <t>"38:39"</t>
-  </si>
-  <si>
-    <t>Yep, it was nice meeting everybody. Hope you have a great</t>
-  </si>
-  <si>
-    <t>"38:43"</t>
-  </si>
-  <si>
-    <t>Yeah, I just wanted to say, nice meeting you all. I enjoyed listening to you all and hearing everybody, your thoughts and stuff, and I hope you all are doing good tight and do good for the rest of the weekend and the rescue.</t>
-  </si>
-  <si>
-    <t>"38:57"</t>
-  </si>
-  <si>
-    <t>Yeah, it was great discussing with everyone. Thanks, this was a great group. No heated arguments or anything. Wonderful.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -517,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -626,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1708,865 +1302,1056 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS69"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:13"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Hey Dion. Hi. Nice to see you guys.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:18"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hello again, Gabe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"12:24"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>I'm all for closing, those loopholes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"12:37"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>I would also, I would agree. And with Gabriel on that. I don't know how they would do it though because it seems like the polls closing loopholes just creates new ones. But regarding the, raising the limits, I think they should raise the limit as they do seem like they're because of inflation, they say they've seen low for several</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"13:03"</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Something seems backwards in all of this. When I look at that one, that talks about the Supreme Court, ruled that corporations under the guise of free speech can make as much content political contribution as they want, but then individuals can be limited to a certain amount. It seems to me backwards. Like the Constitution should be and would be written to protect the rights of individuals people. Not the rights of Corporations, which didn't even exist when the Constitution was created.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"13:32"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>I agree. I agree with Nathan on that. I feel like if the Supreme Court ruling is going to be walked back about equating it with free speech, I think it shouldn't affect individuals. I just think that corporations shouldn't have more rights and individuals that's just wacky in my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"13:53"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>I would agree with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"13:59"</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>I have a feeling that people hide behind the corporations, like you have individuals that are doing this, you know, most of the donating and I contribute in a corporation. I mean, so you guys are all right. If you're gonna limit individuals and for heaven, sakes, limit corporations,</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"14:21"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>I know that to be true because I just know that some of the higher-ups, for example, at the company that I work at have different views than I do. But they, you know, bow down into the desires of the board of directors and they'll donate to whatever political candidate that they want, but it doesn't reflect me. So and I'm in that Corporation, you know, as an employee. So it just doesn't make any sense at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"14:48"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>I'd actually like to see corporations banned from putting money into Political campaigns and they're being given a license to operate to serve the public. Good for you know, which is to make the economy work to make stuff, they shouldn't, it's totally out of place for them to doing that, both for their employees and also, for their customers. May not believe in the things they're donating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"15:09"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that. Limiting the corporation's. I'm kind of thinking that maybe instead of trying to trying to keep them from being influenced, maybe somebody should</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"15:09"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Should keep them in check and keep them doing the public service, and not the private service, not serving the corporation serving the public, and that's kind of, to me, I think we're kind of cutting out the middleman saying, you know, whether they can corporations can donate this much that much, you know, more or less and just keep politicians held to the Public's interest and not private sin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"15:52"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>This is they're going to cut me off. But did you guys hear me when I was speaking? Before I just realized, I didn't have my ears in and I thought well I wonder if I couldn't hear anything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"16:04"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>I can.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"18:29"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I don't think they should use the.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"18:29"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Public funds to finance the elections. I'm not in agreement with them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"18:42"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>I agree. There's already enough money in politics and our government doesn't have extra money to be throwing around. It would just get borrowed in make situation worse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"18:53"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Well, unless they have changed things and I confess I haven't done my own tax returns for about 10 years now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"18:53"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>We've always put public money into but into campaigns but it's always been this dinky little Mount like I think it's a dollar you check a box on your tax return. I would have a problem with raising that to $25 and people just checked it if they want to talk to him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"19:37"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>And disclose disclose disclose disclose all money. I mean, there's a reason that they say, follow the money, we should know who's giving the money for, in particular, some outrageous commercials, but any money behind behind candidates even lobbyist money? I mean, I think you could probably find everything if you dig deep enough but maybe it should be easier to find.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"20:06"</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>I agree with D. I think that people who contribute to campaigns should put their money where their mouth is,</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"21:32"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>We do have in Michigan, we do happen. Independent nonpartisan Commission.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"21:32"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>That draws districts. We voted on it. I was trying to look it up while she was doing the explaining at the very beginning. I think it was 2016 because it was before we had a Democratic governor. And we, we had a republican governor and a republican legislature. And I remember that because that was the other thing I was trying to look up, they immediately try to do something right afterwards, that would take away the effect that the amendment.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"21:32"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> But I think it was thrown out by the state supreme court and I was trying to find it for you guys. What it was they tried to do but I couldn't find</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"22:24"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>I'm just kind of hesitant of the idea of redistricting and redrawing the maps because it's usually done with the purpose. So ultimately what goal you're trying to reach? What are you trying to manipulate? So even though there's an independent company or person doing it, I still think it's worth some kind of mal-intent. I would agree with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"22:43"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>So it's a redistricting does need to be done when population changes because people move from one part of the state to another to balance things out. But I don't understand why we need commissions and people to be so involved in the process. I mean, we could just have a standard algorithm that you could apply to any districting that would go through and have a, you know, an unbiased way of doing it. Like just divide it here, State and thirds and then sneak back and forth, slicing it off at each. Each population threshold, I don't see why it needs to be so complicated. I mean, there's</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"22:43"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> billions of ways you could do it, but if you just chose one and standardized it, I don't see why we need any of this sort of commissions and debate,</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>10532</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"23:26"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>I think with the rise of technology and AI lately, it'd be really easy to automate it somehow like that. I agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"23:37"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>That does that does make sense. I was trying to remember,</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"23:37"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The, how the Supreme Court decision last week, affected the Georgia, redistricting how it was going to change things so quickly, but I don't know if they want from like a standardized or a normal districting. Like Nathan says to something. Totally bizarre, which is by the way, what they did have in our state before, we had an independent commission where they actually, we're cutting out districts that had black</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"23:37"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> voters, you know, are making the sections real small on my run out of time, making the sections of black voters. So small, they had no voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"24:25"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Going back to the topic of a. I I just think, I don't know. Maybe have you guys seen The Matrix? I just I don't know if a is the right answer to this, but I agree that we could come up with a standard and we could just go buy the standard rather than, you know, having political parties whoever's in charge re District Court.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"24:48"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, it's a clarify, having an algorithm is not AI. Those are two totally different things. You could have an AI generated algorithm but I would not recommend that it just make it something simple that people could would notice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>10532</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"25:01"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I totally agree. I don't trust a myself. I just meant that with the rise of Technology, it should be much easier to come up with a solution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"26:29"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>I think it's ridiculous. The idea of creating and making it a civic duty to me that just</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"26:29"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it seems like there should be something that's our right to involve our self in to be forced to do it. Just, I don't know, that just sounds absolutely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"26:50"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>I see where you're coming from Gabriel, but like we make other things like jury duty, like a civic duty that we have to do, and I just question, you know, the stakeholders who say that, you know, it's not a good idea to make it a civic duty and only certain people should vote like, I just questioned their motivations for saying that. Like, you know, I just think they have a vested interest in every like less people voting if you know what I mean.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"27:20"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>The reason I say that is, you know, a lot of the times I got my plate full, I have I have a lot of personal responsibilities that I have to take care of. It isn't always that easy for me to run out and vote and I don't always have an interest necessarily, you know some of the last elections. There's nobody that I wanted to vote for not a single person out there maybe in the third parties but not certainly in the</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"27:20"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> to Nash or the</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"27:20"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Together, Republican and Democrat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"27:56"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>One of the dangers of people voting to avoid fines is that they won't do any research on the candidates and will either vote randomly and very much uninformed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Okay, I totally agree with Gabriel that. Finding someone for not voting. Just takes it away as a right. I mean if you make it compulsory it's not a right, it's Duty and it is different than jury duty. And I don't know why, but it sure feels like it. And I am so appalled, Gabriel that you do not vote in elections. I have Middle Ages. Children your age who still send me there?</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"28:07"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Little stickers when they vote because they know that I'm going to scream at them if they don't go to the polls.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"28:44"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I have some personal reasons to I do, I think I voted a couple of times. I do have some personal reasons to, but I wanted to go back. I don't really think that it's a fair comparison to the idea of jury duty. The reason that we have jury duty as the way is is because we have to have a group of individuals that can give a fair trial there. That's, that's nothing like this vote. And that's I don't think that you can really compare the two. I think</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"28:44"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it's apples in there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"29:15"</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>I agree with that. Like I don't think you should be required to do it and I think you can go back to the work jury duty and it's a duty. It's a different definition. As you have the right to vote, you know, so it's completely different as far as the terminology but I don't, I don't think we should be forced to do it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"29:35"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>And I'm amused by the last one that has 16 year olds being allowed to vote. But only in school board's. If I think back three decades ago to when I was that age, I could care less and really had no idea what was going on in the school board's but I very much did care about voting for president senators and stuff like that. So if they're going to open it up which is fine just open it up across the board for voting and</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"29:59"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>I think that I had no idea with the 16 year olds voting in School Board elections. It's just kind of like to change the narrative on voting and just kind of change people's perceptions of. I mean, like I know Nathan you said you just couldn't care less about it. But you know maybe proposals like these could help kids in school care, more about voting. And then also help adults care more than with making Election Day a national holiday, providing more people, the opportunity to vote</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"29:59"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vote, we can just kind of change, everyone's perception of voting and make it more. Like it's our responsibility to take care of our country and be stewards to our country.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"30:39"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>I mean corporations are supposed to give you four hours on voting day anyway to help accommodate you to get off. Time off of work to go vote. So there's already systems in place, we don't need to make it a national holiday and as far as sixteen-year-olds, I think where they're going to get most of that information is from the teachers in the school and they're going to persuade the sixteen-year-old to vote in the direction that satisfies them. So it's not going to be really much critical thinking, it's just going to be brainwashed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"31:14"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, the we're talking about the kids, it brings me back to, I don't know if it was the last group meeting two days ago or last week, but we were also talking about oh, man. Did I just forget? We were also, I'll come back if I can remember.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"31:34"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>I will say I live in a university town, I spend a lot of time with 18 and 19 year olds. These kids are way smarter than a lot of us were at that age. They have information right at their fingertips and most of them will look it up. I mean, I know what you see online looks awful, but</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"31:34"</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In the real world, I think they are a lot smarter than we give them credit for.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48691</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"32:06"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>Not 16 year olds.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="10">
+      <c r="A56" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>"32:09"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="10">
+      <c r="A57" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="B57" s="4" t="inlineStr">
+        <is>
+          <t>"32:09"</t>
+        </is>
+      </c>
+      <c r="C57" s="4" t="inlineStr">
+        <is>
+          <t>On the Federal Election Day holiday that might actually backfire because I could see that encouraging people who don't get a lot of time off, to use it as a great time for a holiday and then not be around for voting because of that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="10">
+      <c r="A58" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>"37:09"</t>
+        </is>
+      </c>
+      <c r="C58" s="4" t="inlineStr">
+        <is>
+          <t>Should we take AI off of that one to avoid scaring people?</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="10">
+      <c r="A59" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>"37:09"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="n"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="10">
+      <c r="A60" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>"37:09"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="10">
+      <c r="A61" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="B61" s="4" t="inlineStr">
+        <is>
+          <t>"37:23"</t>
+        </is>
+      </c>
+      <c r="C61" s="4" t="inlineStr">
+        <is>
+          <t>Or could we add a caveat about how to avoid a matrix situation if using it?</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="10">
+      <c r="A62" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>"37:44"</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>I'm sorry, it was not letting me edit that for some reason I was able to edit the other time oh shoot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="10">
+      <c r="A63" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="B63" s="4" t="inlineStr">
+        <is>
+          <t>"37:44"</t>
+        </is>
+      </c>
+      <c r="C63" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nope.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="10">
+      <c r="A64" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>"37:44"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="n"/>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="10">
+      <c r="A65" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>"38:02"</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr">
+        <is>
+          <t>That's okay. We can just let the panel open that can of worms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="10">
+      <c r="A66" s="3" t="n">
         <v>48597</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="B66" s="4" t="inlineStr">
+        <is>
+          <t>"38:22"</t>
+        </is>
+      </c>
+      <c r="C66" s="4" t="inlineStr">
+        <is>
+          <t>I think this is it. So it was nice meeting you all, I think after we go up this, that's it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="10">
+      <c r="A67" s="3" t="n">
         <v>48696</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="B67" s="4" t="inlineStr">
+        <is>
+          <t>"38:39"</t>
+        </is>
+      </c>
+      <c r="C67" s="4" t="inlineStr">
+        <is>
+          <t>Yep, it was nice meeting everybody. Hope you have a great</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="10">
+      <c r="A68" s="3" t="n">
         <v>48688</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="B68" s="4" t="inlineStr">
+        <is>
+          <t>"38:43"</t>
+        </is>
+      </c>
+      <c r="C68" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I just wanted to say, nice meeting you all. I enjoyed listening to you all and hearing everybody, your thoughts and stuff, and I hope you all are doing good tight and do good for the rest of the weekend and the rescue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="10">
+      <c r="A69" s="3" t="n">
         <v>9950</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>112</v>
+      <c r="B69" s="4" t="inlineStr">
+        <is>
+          <t>"38:57"</t>
+        </is>
+      </c>
+      <c r="C69" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, it was great discussing with everyone. Thanks, this was a great group. No heated arguments or anything. Wonderful.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB4190C-ED6A-CA4C-800E-81BEEF7518A5}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>